--- a/app/static/WSFL_FAQs_REVISED.xlsx
+++ b/app/static/WSFL_FAQs_REVISED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stella\Documents\flask-dev\flask-wsfl-app\app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C200D4-B0EE-4D70-9309-A9EAE3E501CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD1B37-D453-4613-B97F-C755ECB0A491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27555" yWindow="-9075" windowWidth="26610" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Question Type</t>
   </si>
@@ -216,6 +216,24 @@
   </si>
   <si>
     <t>alphabetical, ordering, sorting, class list</t>
+  </si>
+  <si>
+    <t>Recording Results</t>
+  </si>
+  <si>
+    <t>Do results tranfer between terms?</t>
+  </si>
+  <si>
+    <t>results, term, achievements, carry-over, prefilled, data entry</t>
+  </si>
+  <si>
+    <t>Yes, if a student has already achieved a skill in a previous term, that skill will appear pre-ticked when you open their class for the new term.</t>
+  </si>
+  <si>
+    <t>Can I upload any file format to “Upload Student Achievement”?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No - the system only accepts the official file downloaded from the Student Achievement section of the Class Lookup tool. This ensures the correct structure, column names, and student identifiers are included so your upload can be processed without errors. Make sure not to add in any extra students or change any names. </t>
   </si>
 </sst>
 </file>
@@ -620,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,72 +793,69 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,41 +863,41 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -890,12 +905,40 @@
         <v>40</v>
       </c>
       <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
     </row>

--- a/app/static/WSFL_FAQs_REVISED.xlsx
+++ b/app/static/WSFL_FAQs_REVISED.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stella\Documents\flask-dev\flask-wsfl-app\app\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD1B37-D453-4613-B97F-C755ECB0A491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3372A3-D527-4B4D-84EF-B2A52ABDC584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27555" yWindow="-9075" windowWidth="26610" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-11595" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FAQ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
   <si>
     <t>Question Type</t>
   </si>
@@ -37,219 +37,296 @@
     <t>Logging In</t>
   </si>
   <si>
+    <t>I reset my password but still can’t log in.</t>
+  </si>
+  <si>
+    <t>This often happens when your account is disabled. Once your account is enabled again, the password you set will work.&lt;br&gt;Please ask your administrator or funder/provider to confirm your account is active.&lt;br&gt;Contact support via the &lt;a href="https://wsfl.onrender.com/feedback"&gt;feedback form&lt;/a&gt; if the issue continues.</t>
+  </si>
+  <si>
+    <t>login, password, disabled account</t>
+  </si>
+  <si>
+    <t>Why am I getting 'connection unexpectedly closed' when opening the site?</t>
+  </si>
+  <si>
+    <t>This is caused by a school firewall, often N4L.&lt;br&gt;Please ask your IT team to allow‑list the Water Skills for Life URL:&lt;br&gt;&lt;a href="https://wsfl.onrender.com"&gt;https://wsfl.onrender.com&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>firewall, N4L, network, connection, CONNECTION_UNEXPECTEDLY_CLOSED</t>
+  </si>
+  <si>
+    <t>I never received my invitation or password reset email.</t>
+  </si>
+  <si>
+    <t>Check your spam/junk folders and search for “Water Skills for Life”.&lt;br&gt;If still missing, ask your funder/provider/school administrator to resend it from Manage My Staff or Bulk Emails.&lt;br&gt;Otherwise, use the &lt;a href="https://wsfl.onrender.com/feedback"&gt;feedback form&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>login, email, activation, invitation</t>
+  </si>
+  <si>
+    <t>Your WSFL login exists but is not active.&lt;br&gt;This usually means you no longer work at that school/provider/funder.&lt;br&gt;If incorrect, ask your administrator to re-enable your account.</t>
+  </si>
+  <si>
+    <t>login, disabled, staff, access</t>
+  </si>
+  <si>
     <t>Uploading Class Lists</t>
   </si>
   <si>
+    <t>Why am I getting full blank lines of critical errors?</t>
+  </si>
+  <si>
+    <t>Your file has empty rows.&lt;br&gt;Delete all blank rows and try again.</t>
+  </si>
+  <si>
+    <t>upload, blank lines, csv, errors</t>
+  </si>
+  <si>
+    <t>Why do certain year levels show as critical errors?</t>
+  </si>
+  <si>
+    <t>Caused by incorrect formatting in Excel or extra dots/characters.&lt;br&gt;It can also happen if a year level is invalid for the school type (e.g., year 7 at a contributing school).</t>
+  </si>
+  <si>
+    <t>year level, critical error, upload</t>
+  </si>
+  <si>
+    <t>Can I upload students without an NSN?</t>
+  </si>
+  <si>
+    <t>nsn, upload, new entrants</t>
+  </si>
+  <si>
+    <t>Why is my class not appearing after upload?</t>
+  </si>
+  <si>
+    <t>Common reasons:&lt;br&gt;1. Provider not selected&lt;br&gt;2. Wrong term/year&lt;br&gt;3. Critical errors prevented saving&lt;br&gt;Check the preview page for errors.</t>
+  </si>
+  <si>
+    <t>missing class, upload, provider</t>
+  </si>
+  <si>
+    <t>Why are macrons not showing correctly?</t>
+  </si>
+  <si>
+    <t>Your file is not UTF‑8 compliant.&lt;br&gt;Save as CSV UTF‑8 before uploading.</t>
+  </si>
+  <si>
+    <t>macrons, UTF‑8, encoding</t>
+  </si>
+  <si>
     <t>Class Lists &amp; Editing</t>
   </si>
   <si>
+    <t>Why can’t I edit student details in a class list?</t>
+  </si>
+  <si>
+    <t>School staff can edit their own class lists.&lt;br&gt;Providers/funders cannot edit names/NSNs for privacy reasons.&lt;br&gt;Edit at:&lt;br&gt;&lt;a href="https://wsfl.onrender.com/EditClass"&gt;Edit Class&lt;/a&gt;&lt;br&gt;If the school lacks access, submit the &lt;a href="https://wsfl.onrender.com/feedback"&gt;feedback form&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>edit class, privacy, NSN, school staff</t>
+  </si>
+  <si>
+    <t>Why is my class list not in alphabetical order?</t>
+  </si>
+  <si>
+    <t>Some names include a leading space.&lt;br&gt;Edit the student record to remove extra spaces.</t>
+  </si>
+  <si>
+    <t>alphabetical, ordering, sorting, class list</t>
+  </si>
+  <si>
+    <t>Can I move a class to a different term or year?</t>
+  </si>
+  <si>
+    <t>Administrators can use the Move button in Class Lookup.&lt;br&gt;The button shows only if:&lt;br&gt;• No students who are only in this class for this term&lt;br&gt;• Have results recorded in this term.&lt;br&gt;This prevents data loss.</t>
+  </si>
+  <si>
+    <t>class lookup, move class, term, admin</t>
+  </si>
+  <si>
+    <t>Can I delete a class?</t>
+  </si>
+  <si>
+    <t>class lookup, delete class, admin, results</t>
+  </si>
+  <si>
+    <t>student transfer, NSN, results, carryover</t>
+  </si>
+  <si>
+    <t>Recording Results</t>
+  </si>
+  <si>
+    <t>Do results transfer between terms?</t>
+  </si>
+  <si>
+    <t>Yes.&lt;br&gt;Previously achieved skills appear pre‑ticked in new terms.</t>
+  </si>
+  <si>
+    <t>results, term, achievements, carry-over, prefilled, data entry</t>
+  </si>
+  <si>
+    <t>Can I upload any file format to 'Upload Student Achievement'?</t>
+  </si>
+  <si>
+    <t>upload, achievements, csv, structure</t>
+  </si>
+  <si>
+    <t>Why do some skill tick boxes auto‑select others?</t>
+  </si>
+  <si>
+    <t>Skills are linked.&lt;br&gt;Ticking a later skill auto‑ticks prerequisites.</t>
+  </si>
+  <si>
+    <t>skills, auto select, prerequisites</t>
+  </si>
+  <si>
+    <t>Admins can often use Move Class.&lt;br&gt;If results themselves are incorrect, re-upload or contact support.</t>
+  </si>
+  <si>
+    <t>results, upload, wrong term, move class</t>
+  </si>
+  <si>
     <t>Reporting</t>
   </si>
   <si>
-    <t>I reset my password but still can’t log in.</t>
-  </si>
-  <si>
-    <t>Why am I getting 'connection unexpectedly closed' when opening the site?</t>
-  </si>
-  <si>
-    <t>Why do certain year levels show as critical errors?</t>
-  </si>
-  <si>
-    <t>Why is my class not appearing after upload?</t>
-  </si>
-  <si>
-    <t>Why are macrons not showing correctly?</t>
-  </si>
-  <si>
-    <t>Why can’t I edit student details in a class list?</t>
-  </si>
-  <si>
-    <t>Why are some skill tick boxes auto‑selecting others?</t>
-  </si>
-  <si>
     <t>Why can’t I change the year or term for a report?</t>
   </si>
   <si>
+    <t>Some school reports are locked to the current term.&lt;br&gt;Provider/funder reports allow selecting year and term.</t>
+  </si>
+  <si>
+    <t>reporting, year, term</t>
+  </si>
+  <si>
+    <t>Forms + eLearning</t>
+  </si>
+  <si>
     <t>How do I access my eLearning courses?</t>
   </si>
   <si>
+    <t>Go to the eLearning tab and follow the SportTutor link.</t>
+  </si>
+  <si>
+    <t>elearning, SportTutor, access</t>
+  </si>
+  <si>
+    <t>Add it as an Alternate Email under:&lt;br&gt;&lt;a href="https://wsfl.onrender.com/Profile"&gt;Profile&lt;/a&gt; → Edit → Alternate Email.</t>
+  </si>
+  <si>
+    <t>elearning, SportTutor, alternate email</t>
+  </si>
+  <si>
+    <t>How can I send reminders for self review or eLearning?</t>
+  </si>
+  <si>
+    <t>Two ways:&lt;br&gt;1. &lt;a href="https://wsfl.onrender.com/BulkEmails" target="_blank"&gt;Bulk Emails&lt;/a&gt;&lt;br&gt;2. &lt;a href="https://wsfl.onrender.com/Staff" target="_blank"&gt;Manage My Staff&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>staff, elearning, self review, reminders, bulk emails</t>
+  </si>
+  <si>
     <t>How long does it take for eLearning records to sync?</t>
   </si>
   <si>
+    <t>Sync occurs on weekdays and is normally updated by 9am.&lt;br&gt;If missing for 2 working days, contact support.</t>
+  </si>
+  <si>
+    <t>elearning, SportTutor, sync</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
     <t>Why can’t I see my staff profiles?</t>
   </si>
   <si>
+    <t>Staff appear only if linked to your entity.&lt;br&gt;Add them in Manage My Staff.</t>
+  </si>
+  <si>
+    <t>staff, login, access</t>
+  </si>
+  <si>
     <t>Why can’t I see any schools in my dropdown?</t>
   </si>
   <si>
+    <t>No schools are assigned to your provider/funder.&lt;br&gt;If incorrect, submit the &lt;a href="https://wsfl.onrender.com/feedback"&gt;feedback form&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>schools, provider, funder, mapping</t>
+  </si>
+  <si>
     <t>How do I add staff to my provider or funder?</t>
   </si>
   <si>
-    <t>This occurs when the Excel file is not UTF‑8 compliant. Please save your file as CSV UTF‑8 before uploading.</t>
-  </si>
-  <si>
-    <t>Some skills are linked sequences. If you tick a later step, earlier prerequisite steps may auto‑tick. This is expected behaviour.</t>
-  </si>
-  <si>
-    <t>Some reports are locked to the current term and year. Provider and funder reports support year/term selection. School reports are term‑specific.</t>
-  </si>
-  <si>
-    <t>Records sync on weekdays and are normally updated by 9am. If it has not appeared after two working days, contact support.</t>
-  </si>
-  <si>
-    <t>login, password, disabled account</t>
-  </si>
-  <si>
-    <t>upload, blank lines, csv, errors</t>
-  </si>
-  <si>
-    <t>year level, critical error, upload</t>
-  </si>
-  <si>
-    <t>new entrants, nsn, upload</t>
-  </si>
-  <si>
-    <t>missing class, upload, provider</t>
-  </si>
-  <si>
-    <t>macrons, UTF‑8, encoding</t>
-  </si>
-  <si>
-    <t>edit class, privacy, NSN, school staff</t>
-  </si>
-  <si>
-    <t>skills, ticks, auto select</t>
-  </si>
-  <si>
-    <t>reporting, year, term</t>
-  </si>
-  <si>
-    <t>elearning, access, SportTutor</t>
-  </si>
-  <si>
-    <t>elearning, alternate email</t>
-  </si>
-  <si>
-    <t>elearning sync, SportTutor</t>
-  </si>
-  <si>
-    <t>staff, self review</t>
-  </si>
-  <si>
-    <t>provider, funder, schools</t>
-  </si>
-  <si>
-    <t>add staff, provider</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>This often happens when your account is disabled. Once your account is enabled again, the password you set will work. Get your administrator or funder/ provider to confirm that you are using the  Please contact support if you continue having issues.</t>
-  </si>
-  <si>
-    <t>Why am I getting full blank lines of critical errors?</t>
-  </si>
-  <si>
-    <t>Your file has empty rows. Delete all blank rows and try again.</t>
-  </si>
-  <si>
-    <t>Can I upload students without an NSN?</t>
-  </si>
-  <si>
-    <t>No - an NSN is required for database matching. Please contact the school to request the student’s NSN before uploading.</t>
-  </si>
-  <si>
-    <t>My SportTutor email is different to my WSFL login - what should I do?</t>
-  </si>
-  <si>
-    <t>Go to the eLearning tab in your WSFL portal, then follow the link to the SportTutor courses.</t>
-  </si>
-  <si>
-    <t>Forms + eLearning</t>
-  </si>
-  <si>
-    <t>How can I send reminders for self review or elearning?</t>
-  </si>
-  <si>
-    <t>staff, elearning, self review, reminders, bulk emails, reminders</t>
-  </si>
-  <si>
-    <t>Staff will only appear if they have WSFL accounts (active or disabled) linked to your entity. You can add them via &lt;a href="https://wsfl.onrender.com/Staff" target="_blank"&gt;Manage My Staff&lt;/a&gt;  .</t>
-  </si>
-  <si>
-    <t>Go to &lt;a href="https://wsfl.onrender.com/Staff" target="_blank"&gt;Manage My Staff&lt;/a&gt;  and use the Add Staff button. If the button is missing, your role does not allow adding staff.</t>
-  </si>
-  <si>
-    <t>This means no schools are currently assigned to your provider or funder. If this is incorrect, contact support via the &lt;a href="https://wsfl.onrender.com/feedback"&gt; feedback form &lt;a&gt;to update your entity mapping.</t>
-  </si>
-  <si>
-    <t>This is caused by a school firewall, often N4L. Please ask your IT team or firewall to allow‑list the Water Skills for Life &lt;a href="https://wsfl.onrender.com"&gt;URL&lt;a&gt;: https://wsfl.onrender.com</t>
-  </si>
-  <si>
-    <t>firewall, N4L, network, connection, CONNECTION_UNEXPECTEDLY_CLOSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is usually caused by incorrect year‑level formatting in Excel or extra dots/characters. It can also be due to the year-level being invalid for the school type, e.g. trying to add year 7s for a contributing school. </t>
-  </si>
-  <si>
-    <t>Common reasons:&lt;br&gt;1. Provider not selected,&lt;br&gt;2. Class uploaded under the wrong term/year,&lt;br&gt;3. Critical errors prevented saving. &lt;br&gt;Check the preview page for errors.</t>
-  </si>
-  <si>
-    <t>Add the alternative email under &lt;a href="https://wsfl.onrender.com/Profile"&gt;Profile&lt;a&gt; → Edit → Alternate Email. This ensures your completion records sync correctly. You will still login using your original email.</t>
-  </si>
-  <si>
-    <t>You can send reminders in two ways:&lt;br&gt;
-1. &lt;a href="https://wsfl.onrender.com/BulkEmails" target="_blank"&gt;Bulk Emails&lt;/a&gt; &lt;br&gt;
-     Filter to the relevant staff and select who you want to email.&lt;br&gt;
-2. &lt;a href="https://wsfl.onrender.com/Staff" target="_blank"&gt;Manage My Staff&lt;/a&gt; &lt;br&gt;
-     Send individual reminders one at a time if you prefer.</t>
-  </si>
-  <si>
-    <t>All school staff can edit their own class lists. Providers and funders cannot edit student details for privacy reasons. To edit student names, year levels, or NSNs, go to: &lt;a href="https://wsfl.onrender.com/EditClass"&gt;Edit Class&lt;a&gt;  and follow the video or PDF instructions. If the relevant school does not have access, please contact support via the &lt;a href="https://wsfl.onrender.com/feedback"&gt;feedback form &lt;a&gt;.</t>
-  </si>
-  <si>
-    <t>Why is my class list not in alphabetical order?</t>
-  </si>
-  <si>
-    <t>Sometimes students are uploaded with a space before their first name or surname. This can cause the order to look incorrect. If this is the case, schools can edit the student record and remove additional spaces.</t>
-  </si>
-  <si>
-    <t>alphabetical, ordering, sorting, class list</t>
-  </si>
-  <si>
-    <t>Recording Results</t>
-  </si>
-  <si>
-    <t>Do results tranfer between terms?</t>
-  </si>
-  <si>
-    <t>results, term, achievements, carry-over, prefilled, data entry</t>
-  </si>
-  <si>
-    <t>Yes, if a student has already achieved a skill in a previous term, that skill will appear pre-ticked when you open their class for the new term.</t>
-  </si>
-  <si>
-    <t>Can I upload any file format to “Upload Student Achievement”?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No - the system only accepts the official file downloaded from the Student Achievement section of the Class Lookup tool. This ensures the correct structure, column names, and student identifiers are included so your upload can be processed without errors. Make sure not to add in any extra students or change any names. </t>
+    <t>Use Add Staff in:&lt;br&gt;&lt;a href="https://wsfl.onrender.com/Staff" target="_blank"&gt;Manage My Staff&lt;/a&gt;&lt;br&gt;If the button is missing, your role restricts this.</t>
+  </si>
+  <si>
+    <t>add staff, provider, funder, permissions</t>
+  </si>
+  <si>
+    <t>What is the difference between an administrator and standard user?</t>
+  </si>
+  <si>
+    <t>Admins can add/disable staff, send bulk emails, and move/delete classes.&lt;br&gt;Standard users cannot manage accounts.</t>
+  </si>
+  <si>
+    <t>admin, permissions, staff roles</t>
+  </si>
+  <si>
+    <t>Who can see student-level data?</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>How do I get help if something isn’t working?</t>
+  </si>
+  <si>
+    <t>Use the Help button or submit the&lt;br&gt;&lt;a href="https://wsfl.onrender.com/feedback"&gt;feedback form&lt;/a&gt;.&lt;br&gt;Include screenshots for faster support.</t>
+  </si>
+  <si>
+    <t>support, help, feedback, error</t>
+  </si>
+  <si>
+    <t>My login says my account is disabled - what does this mean?</t>
+  </si>
+  <si>
+    <t>No - an NSN is required for database matching.&lt;br&gt;Please request the student’s NSN from the school.</t>
+  </si>
+  <si>
+    <t>Yes - the Delete button appears only when a class has no protected results for students only enrolled in that class for that term.</t>
+  </si>
+  <si>
+    <t>A student changed schools - do their results move with them?</t>
+  </si>
+  <si>
+    <t>Yes - results follow the NSN, not the school.</t>
+  </si>
+  <si>
+    <t>No - only the official file downloaded from Class Lookup is accepted.</t>
+  </si>
+  <si>
+    <t>I uploaded achievements to the wrong class/term - how do I fix it?</t>
+  </si>
+  <si>
+    <t>My SportTutor email is different - what should I do?</t>
+  </si>
+  <si>
+    <t>Only school staff and authorised WSNZ staff can view NSNs and full student-level details.&lt;br&gt;
+Providers and funders can see student-by-student rows, but NSNs and identifying details are hidden for privacy.&lt;br&gt;
+All reporting for funders and providers is anonymised or aggregated.</t>
+  </si>
+  <si>
+    <t>privacy, NSN, permissions, access, reporting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -265,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -273,30 +350,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -360,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,27 +451,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,24 +485,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -638,30 +661,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="216.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -670,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -684,265 +705,394 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>